--- a/009工作OKR/2020003数据流一体化/code/仪表条件定位.xlsx
+++ b/009工作OKR/2020003数据流一体化/code/仪表条件定位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="15680"/>
+    <workbookView windowHeight="16800"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>序号</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>垂直</t>
     </r>
     <r>
@@ -144,43 +150,133 @@
     <t>200mm</t>
   </si>
   <si>
-    <t>PG1102</t>
-  </si>
-  <si>
-    <t>PIAS1102</t>
-  </si>
-  <si>
-    <t>PG1103</t>
-  </si>
-  <si>
-    <t>PIAS1103</t>
-  </si>
-  <si>
-    <t>PIAS1104</t>
-  </si>
-  <si>
-    <t>LG1101</t>
-  </si>
-  <si>
-    <t>LAS1101</t>
-  </si>
-  <si>
-    <t>LG1102</t>
-  </si>
-  <si>
-    <t>LAS1102</t>
-  </si>
-  <si>
-    <t>LG1103</t>
-  </si>
-  <si>
-    <t>LAS1103</t>
-  </si>
-  <si>
-    <t>LAS1104</t>
-  </si>
-  <si>
-    <t>LAS1105</t>
+    <t>操作温度</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阀前</t>
+    </r>
+  </si>
+  <si>
+    <t>阀后</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阀门全关时最大压差</t>
+    </r>
+  </si>
+  <si>
+    <t>阀门失能位置</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手轮</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管段号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管子尺寸规格</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管子材质</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -188,10 +284,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -208,14 +304,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,61 +363,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,16 +387,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,15 +410,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -351,8 +438,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,187 +469,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,24 +660,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -650,6 +728,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -664,158 +751,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1164,10 +1261,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A10:CV30"/>
+  <dimension ref="A10:CV21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="CA1" workbookViewId="0">
+      <selection activeCell="CV30" sqref="CV30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1677,425 +1774,367 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:52">
-      <c r="A16">
+    <row r="19" spans="1:85">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BF19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="BJ19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BO19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BQ19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="BX19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="CE19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="CG19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:85">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AJ20">
+        <v>1</v>
+      </c>
+      <c r="AP20">
+        <v>1</v>
+      </c>
+      <c r="AS20">
+        <v>1</v>
+      </c>
+      <c r="AV20">
+        <v>1</v>
+      </c>
+      <c r="AY20">
+        <v>1</v>
+      </c>
+      <c r="BB20">
+        <v>1</v>
+      </c>
+      <c r="BF20">
+        <v>1</v>
+      </c>
+      <c r="BJ20">
+        <v>1</v>
+      </c>
+      <c r="BM20">
+        <v>1</v>
+      </c>
+      <c r="BO20">
+        <v>1</v>
+      </c>
+      <c r="BQ20">
+        <v>1</v>
+      </c>
+      <c r="BX20">
+        <v>1</v>
+      </c>
+      <c r="CB20">
+        <v>1</v>
+      </c>
+      <c r="CE20">
+        <v>1</v>
+      </c>
+      <c r="CG20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:85">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21" s="1">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>9</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <v>11</v>
+      </c>
+      <c r="L21">
+        <v>12</v>
+      </c>
+      <c r="M21">
+        <v>13</v>
+      </c>
+      <c r="N21">
+        <v>14</v>
+      </c>
+      <c r="O21" s="1">
+        <v>15</v>
+      </c>
+      <c r="P21">
+        <v>16</v>
+      </c>
+      <c r="Q21">
+        <v>17</v>
+      </c>
+      <c r="R21">
+        <v>18</v>
+      </c>
+      <c r="S21">
+        <v>19</v>
+      </c>
+      <c r="T21">
+        <v>20</v>
+      </c>
+      <c r="U21" s="1">
+        <v>21</v>
+      </c>
+      <c r="V21">
+        <v>22</v>
+      </c>
+      <c r="W21">
+        <v>23</v>
+      </c>
+      <c r="X21">
+        <v>24</v>
+      </c>
+      <c r="Y21">
+        <v>25</v>
+      </c>
+      <c r="Z21">
+        <v>26</v>
+      </c>
+      <c r="AA21">
+        <v>27</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>28</v>
+      </c>
+      <c r="AC21">
+        <v>29</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>30</v>
+      </c>
+      <c r="AE21">
+        <v>31</v>
+      </c>
+      <c r="AF21">
+        <v>32</v>
+      </c>
+      <c r="AG21">
+        <v>33</v>
+      </c>
+      <c r="AH21">
+        <v>34</v>
+      </c>
+      <c r="AI21">
+        <v>35</v>
+      </c>
+      <c r="AJ21" s="1">
         <v>36</v>
       </c>
-      <c r="G16" t="s">
-        <v>28</v>
-      </c>
-      <c r="U16" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>34</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:52">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="AK21">
         <v>37</v>
       </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
-      <c r="U17" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>34</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:52">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="AL21">
         <v>38</v>
       </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
-      <c r="U18" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>34</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:52">
-      <c r="A19">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="AM21">
         <v>39</v>
       </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
-      <c r="U19" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW19" t="s">
-        <v>34</v>
-      </c>
-      <c r="AZ19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:52">
-      <c r="A20">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="AN21">
         <v>40</v>
       </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
-      <c r="U20" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>34</v>
-      </c>
-      <c r="AZ20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:52">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="AO21">
         <v>41</v>
       </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
-      <c r="U23" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AZ23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:52">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="AP21" s="1">
         <v>42</v>
       </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
-      <c r="U24" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT24" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW24" t="s">
-        <v>34</v>
-      </c>
-      <c r="AZ24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:52">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="AQ21">
         <v>43</v>
       </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
-      <c r="U25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW25" t="s">
-        <v>34</v>
-      </c>
-      <c r="AZ25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:52">
-      <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="AR21">
         <v>44</v>
       </c>
-      <c r="G26" t="s">
-        <v>28</v>
-      </c>
-      <c r="U26" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW26" t="s">
-        <v>34</v>
-      </c>
-      <c r="AZ26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:52">
-      <c r="A27">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="AS21" s="1">
         <v>45</v>
       </c>
-      <c r="G27" t="s">
-        <v>28</v>
-      </c>
-      <c r="U27" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW27" t="s">
-        <v>34</v>
-      </c>
-      <c r="AZ27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:52">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="AT21">
         <v>46</v>
       </c>
-      <c r="G28" t="s">
-        <v>28</v>
-      </c>
-      <c r="U28" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT28" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW28" t="s">
-        <v>34</v>
-      </c>
-      <c r="AZ28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:52">
-      <c r="A29">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="AU21">
         <v>47</v>
       </c>
-      <c r="G29" t="s">
-        <v>28</v>
-      </c>
-      <c r="U29" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK29" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT29" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW29" t="s">
-        <v>34</v>
-      </c>
-      <c r="AZ29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:52">
-      <c r="A30">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="AV21" s="1">
         <v>48</v>
       </c>
-      <c r="G30" t="s">
-        <v>28</v>
-      </c>
-      <c r="U30" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT30" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW30" t="s">
-        <v>34</v>
-      </c>
-      <c r="AZ30" t="s">
-        <v>35</v>
+      <c r="AW21">
+        <v>49</v>
+      </c>
+      <c r="AX21">
+        <v>50</v>
+      </c>
+      <c r="AY21" s="1">
+        <v>51</v>
+      </c>
+      <c r="AZ21">
+        <v>52</v>
+      </c>
+      <c r="BA21">
+        <v>53</v>
+      </c>
+      <c r="BB21" s="1">
+        <v>54</v>
+      </c>
+      <c r="BC21">
+        <v>55</v>
+      </c>
+      <c r="BD21">
+        <v>56</v>
+      </c>
+      <c r="BE21">
+        <v>57</v>
+      </c>
+      <c r="BF21" s="1">
+        <v>58</v>
+      </c>
+      <c r="BG21">
+        <v>59</v>
+      </c>
+      <c r="BH21">
+        <v>60</v>
+      </c>
+      <c r="BI21">
+        <v>61</v>
+      </c>
+      <c r="BJ21" s="1">
+        <v>62</v>
+      </c>
+      <c r="BK21">
+        <v>63</v>
+      </c>
+      <c r="BL21">
+        <v>64</v>
+      </c>
+      <c r="BM21" s="1">
+        <v>65</v>
+      </c>
+      <c r="BN21">
+        <v>66</v>
+      </c>
+      <c r="BO21" s="1">
+        <v>67</v>
+      </c>
+      <c r="BP21">
+        <v>68</v>
+      </c>
+      <c r="BQ21" s="1">
+        <v>69</v>
+      </c>
+      <c r="BR21">
+        <v>70</v>
+      </c>
+      <c r="BS21">
+        <v>71</v>
+      </c>
+      <c r="BT21">
+        <v>72</v>
+      </c>
+      <c r="BU21">
+        <v>73</v>
+      </c>
+      <c r="BV21">
+        <v>74</v>
+      </c>
+      <c r="BW21">
+        <v>75</v>
+      </c>
+      <c r="BX21" s="1">
+        <v>76</v>
+      </c>
+      <c r="BY21">
+        <v>77</v>
+      </c>
+      <c r="BZ21">
+        <v>78</v>
+      </c>
+      <c r="CA21">
+        <v>79</v>
+      </c>
+      <c r="CB21" s="1">
+        <v>80</v>
+      </c>
+      <c r="CC21">
+        <v>81</v>
+      </c>
+      <c r="CD21">
+        <v>82</v>
+      </c>
+      <c r="CE21" s="1">
+        <v>83</v>
+      </c>
+      <c r="CF21">
+        <v>84</v>
+      </c>
+      <c r="CG21" s="1">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
